--- a/seed-files/R1.0-Authorization-Model-Delete.xlsx
+++ b/seed-files/R1.0-Authorization-Model-Delete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\seed-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B5758-945B-48F0-A60D-AD2F68ECADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C9842-D545-4BE9-AB4B-9BBAF36226A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>Permissions</t>
   </si>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -1459,6 +1459,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
